--- a/antibiotics_recovery/antibiotics.xlsx
+++ b/antibiotics_recovery/antibiotics.xlsx
@@ -2334,7 +2334,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -2346,12 +2346,12 @@
         <v>8</v>
       </c>
       <c r="E2" t="n">
-        <v>3.1762657500273</v>
+        <v>1.23741764050519</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -2363,12 +2363,12 @@
         <v>8</v>
       </c>
       <c r="E3" t="n">
-        <v>1.23741764050519</v>
+        <v>1.52831773485423</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -2380,7 +2380,7 @@
         <v>8</v>
       </c>
       <c r="E4" t="n">
-        <v>1.52831773485423</v>
+        <v>3.1762657500273</v>
       </c>
     </row>
     <row r="5">
@@ -2436,7 +2436,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -2448,12 +2448,12 @@
         <v>8</v>
       </c>
       <c r="E8" t="n">
-        <v>2.83216892206713</v>
+        <v>1.51228893917196</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -2465,7 +2465,7 @@
         <v>8</v>
       </c>
       <c r="E9" t="n">
-        <v>1.51228893917196</v>
+        <v>2.83216892206713</v>
       </c>
     </row>
     <row r="10">
@@ -2572,7 +2572,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -2584,12 +2584,12 @@
         <v>8</v>
       </c>
       <c r="E16" t="n">
-        <v>0.742721452977517</v>
+        <v>2.13000711988155</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -2601,12 +2601,12 @@
         <v>8</v>
       </c>
       <c r="E17" t="n">
-        <v>2.94520487683354</v>
+        <v>0.742721452977517</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -2618,7 +2618,7 @@
         <v>8</v>
       </c>
       <c r="E18" t="n">
-        <v>2.13000711988155</v>
+        <v>2.94520487683354</v>
       </c>
     </row>
     <row r="19">
@@ -2691,7 +2691,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
@@ -2703,12 +2703,12 @@
         <v>8</v>
       </c>
       <c r="E23" t="n">
-        <v>2.26941787792635</v>
+        <v>2.70465026942055</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
         <v>17</v>
@@ -2720,7 +2720,7 @@
         <v>8</v>
       </c>
       <c r="E24" t="n">
-        <v>2.70465026942055</v>
+        <v>2.26941787792635</v>
       </c>
     </row>
     <row r="25">
@@ -2742,7 +2742,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
         <v>18</v>
@@ -2754,12 +2754,12 @@
         <v>8</v>
       </c>
       <c r="E26" t="n">
-        <v>3.10517664713677</v>
+        <v>2.74000076079589</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
         <v>18</v>
@@ -2771,7 +2771,7 @@
         <v>8</v>
       </c>
       <c r="E27" t="n">
-        <v>2.74000076079589</v>
+        <v>3.10517664713677</v>
       </c>
     </row>
     <row r="28">
@@ -2793,7 +2793,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B29" t="s">
         <v>19</v>
@@ -2805,12 +2805,12 @@
         <v>8</v>
       </c>
       <c r="E29" t="n">
-        <v>1.65643783555454</v>
+        <v>0.775820137560389</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
         <v>19</v>
@@ -2822,7 +2822,7 @@
         <v>8</v>
       </c>
       <c r="E30" t="n">
-        <v>0.775820137560389</v>
+        <v>1.65643783555454</v>
       </c>
     </row>
     <row r="31">
@@ -2844,7 +2844,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B32" t="s">
         <v>20</v>
@@ -2856,12 +2856,12 @@
         <v>8</v>
       </c>
       <c r="E32" t="n">
-        <v>3.21454704131548</v>
+        <v>1.29795759292956</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B33" t="s">
         <v>20</v>
@@ -2873,7 +2873,7 @@
         <v>8</v>
       </c>
       <c r="E33" t="n">
-        <v>1.29795759292956</v>
+        <v>3.21454704131548</v>
       </c>
     </row>
     <row r="34">
@@ -2915,7 +2915,7 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
@@ -2924,7 +2924,7 @@
         <v>23</v>
       </c>
       <c r="E36" t="n">
-        <v>2.87893324156365</v>
+        <v>2.5498230779324</v>
       </c>
     </row>
     <row r="37">
@@ -2932,7 +2932,7 @@
         <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
@@ -2941,7 +2941,7 @@
         <v>23</v>
       </c>
       <c r="E37" t="n">
-        <v>2.61605161693367</v>
+        <v>2.581286755879</v>
       </c>
     </row>
     <row r="38">
@@ -2949,7 +2949,7 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
@@ -2958,7 +2958,7 @@
         <v>23</v>
       </c>
       <c r="E38" t="n">
-        <v>2.83891882678716</v>
+        <v>2.7226631443399</v>
       </c>
     </row>
     <row r="39">
@@ -2966,7 +2966,7 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
@@ -2975,7 +2975,7 @@
         <v>23</v>
       </c>
       <c r="E39" t="n">
-        <v>2.09300807041845</v>
+        <v>2.87893324156365</v>
       </c>
     </row>
     <row r="40">
@@ -2983,7 +2983,7 @@
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
@@ -2992,7 +2992,7 @@
         <v>23</v>
       </c>
       <c r="E40" t="n">
-        <v>2.35277065948674</v>
+        <v>2.61605161693367</v>
       </c>
     </row>
     <row r="41">
@@ -3000,7 +3000,7 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
@@ -3009,7 +3009,7 @@
         <v>23</v>
       </c>
       <c r="E41" t="n">
-        <v>2.54529387732925</v>
+        <v>2.83891882678716</v>
       </c>
     </row>
     <row r="42">
@@ -3017,16 +3017,16 @@
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D42" t="s">
         <v>23</v>
       </c>
       <c r="E42" t="n">
-        <v>1.88546979907903</v>
+        <v>2.09300807041845</v>
       </c>
     </row>
     <row r="43">
@@ -3034,16 +3034,16 @@
         <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D43" t="s">
         <v>23</v>
       </c>
       <c r="E43" t="n">
-        <v>1.59274707046618</v>
+        <v>2.35277065948674</v>
       </c>
     </row>
     <row r="44">
@@ -3051,16 +3051,16 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D44" t="s">
         <v>23</v>
       </c>
       <c r="E44" t="n">
-        <v>1.88960697160701</v>
+        <v>2.54529387732925</v>
       </c>
     </row>
     <row r="45">
@@ -3068,16 +3068,16 @@
         <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C45" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D45" t="s">
         <v>23</v>
       </c>
       <c r="E45" t="n">
-        <v>2.77372257423141</v>
+        <v>1.88546979907903</v>
       </c>
     </row>
     <row r="46">
@@ -3085,16 +3085,16 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C46" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D46" t="s">
         <v>23</v>
       </c>
       <c r="E46" t="n">
-        <v>2.32894842647018</v>
+        <v>1.59274707046618</v>
       </c>
     </row>
     <row r="47">
@@ -3102,16 +3102,16 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C47" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D47" t="s">
         <v>23</v>
       </c>
       <c r="E47" t="n">
-        <v>2.66895547401024</v>
+        <v>1.88960697160701</v>
       </c>
     </row>
     <row r="48">
@@ -3119,16 +3119,16 @@
         <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D48" t="s">
         <v>23</v>
       </c>
       <c r="E48" t="n">
-        <v>1.57740633837186</v>
+        <v>2.77372257423141</v>
       </c>
     </row>
     <row r="49">
@@ -3136,16 +3136,16 @@
         <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C49" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D49" t="s">
         <v>23</v>
       </c>
       <c r="E49" t="n">
-        <v>1.96068855475949</v>
+        <v>2.32894842647018</v>
       </c>
     </row>
     <row r="50">
@@ -3153,16 +3153,16 @@
         <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D50" t="s">
         <v>23</v>
       </c>
       <c r="E50" t="n">
-        <v>2.08818687545447</v>
+        <v>2.66895547401024</v>
       </c>
     </row>
     <row r="51">
@@ -3170,16 +3170,16 @@
         <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C51" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D51" t="s">
         <v>23</v>
       </c>
       <c r="E51" t="n">
-        <v>2.72529103570676</v>
+        <v>1.57740633837186</v>
       </c>
     </row>
     <row r="52">
@@ -3187,16 +3187,16 @@
         <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C52" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D52" t="s">
         <v>23</v>
       </c>
       <c r="E52" t="n">
-        <v>2.86326271257492</v>
+        <v>1.96068855475949</v>
       </c>
     </row>
     <row r="53">
@@ -3204,16 +3204,16 @@
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C53" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D53" t="s">
         <v>23</v>
       </c>
       <c r="E53" t="n">
-        <v>2.5398082049925</v>
+        <v>2.08818687545447</v>
       </c>
     </row>
     <row r="54">
@@ -3221,7 +3221,7 @@
         <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
@@ -3230,7 +3230,7 @@
         <v>23</v>
       </c>
       <c r="E54" t="n">
-        <v>2.49371100404164</v>
+        <v>2.72529103570676</v>
       </c>
     </row>
     <row r="55">
@@ -3238,7 +3238,7 @@
         <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
@@ -3247,7 +3247,7 @@
         <v>23</v>
       </c>
       <c r="E55" t="n">
-        <v>2.23124270763613</v>
+        <v>2.86326271257492</v>
       </c>
     </row>
     <row r="56">
@@ -3255,7 +3255,7 @@
         <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C56" t="s">
         <v>7</v>
@@ -3264,7 +3264,7 @@
         <v>23</v>
       </c>
       <c r="E56" t="n">
-        <v>2.74686558262568</v>
+        <v>2.5398082049925</v>
       </c>
     </row>
     <row r="57">
@@ -3272,16 +3272,16 @@
         <v>3</v>
       </c>
       <c r="B57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D57" t="s">
         <v>23</v>
       </c>
       <c r="E57" t="n">
-        <v>2.5526905916409</v>
+        <v>2.49371100404164</v>
       </c>
     </row>
     <row r="58">
@@ -3289,16 +3289,16 @@
         <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D58" t="s">
         <v>23</v>
       </c>
       <c r="E58" t="n">
-        <v>2.50704918492878</v>
+        <v>2.23124270763613</v>
       </c>
     </row>
     <row r="59">
@@ -3306,16 +3306,16 @@
         <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D59" t="s">
         <v>23</v>
       </c>
       <c r="E59" t="n">
-        <v>1.72441570876709</v>
+        <v>2.74686558262568</v>
       </c>
     </row>
     <row r="60">
@@ -3323,16 +3323,16 @@
         <v>3</v>
       </c>
       <c r="B60" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C60" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D60" t="s">
         <v>23</v>
       </c>
       <c r="E60" t="n">
-        <v>2.5498230779324</v>
+        <v>2.5526905916409</v>
       </c>
     </row>
     <row r="61">
@@ -3340,16 +3340,16 @@
         <v>4</v>
       </c>
       <c r="B61" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C61" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D61" t="s">
         <v>23</v>
       </c>
       <c r="E61" t="n">
-        <v>2.581286755879</v>
+        <v>2.50704918492878</v>
       </c>
     </row>
     <row r="62">
@@ -3357,16 +3357,16 @@
         <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C62" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D62" t="s">
         <v>23</v>
       </c>
       <c r="E62" t="n">
-        <v>2.7226631443399</v>
+        <v>1.72441570876709</v>
       </c>
     </row>
     <row r="63">
@@ -3374,16 +3374,16 @@
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D63" t="s">
         <v>23</v>
       </c>
       <c r="E63" t="n">
-        <v>1.70401554789182</v>
+        <v>2.10091160480523</v>
       </c>
     </row>
     <row r="64">
@@ -3391,16 +3391,16 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C64" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D64" t="s">
         <v>23</v>
       </c>
       <c r="E64" t="n">
-        <v>1.86425833197481</v>
+        <v>2.04639406424072</v>
       </c>
     </row>
     <row r="65">
@@ -3408,16 +3408,16 @@
         <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C65" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D65" t="s">
         <v>23</v>
       </c>
       <c r="E65" t="n">
-        <v>1.0714419542963</v>
+        <v>2.19147683877929</v>
       </c>
     </row>
     <row r="66">
@@ -3425,7 +3425,7 @@
         <v>3</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C66" t="s">
         <v>15</v>
@@ -3434,7 +3434,7 @@
         <v>23</v>
       </c>
       <c r="E66" t="n">
-        <v>2.27346092137473</v>
+        <v>1.70401554789182</v>
       </c>
     </row>
     <row r="67">
@@ -3442,7 +3442,7 @@
         <v>4</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C67" t="s">
         <v>15</v>
@@ -3451,7 +3451,7 @@
         <v>23</v>
       </c>
       <c r="E67" t="n">
-        <v>2.57268229267291</v>
+        <v>1.86425833197481</v>
       </c>
     </row>
     <row r="68">
@@ -3459,7 +3459,7 @@
         <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C68" t="s">
         <v>15</v>
@@ -3468,7 +3468,7 @@
         <v>23</v>
       </c>
       <c r="E68" t="n">
-        <v>1.63809982052118</v>
+        <v>1.0714419542963</v>
       </c>
     </row>
     <row r="69">
@@ -3476,16 +3476,16 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C69" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D69" t="s">
         <v>23</v>
       </c>
       <c r="E69" t="n">
-        <v>2.10091160480523</v>
+        <v>2.27346092137473</v>
       </c>
     </row>
     <row r="70">
@@ -3493,16 +3493,16 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C70" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D70" t="s">
         <v>23</v>
       </c>
       <c r="E70" t="n">
-        <v>2.04639406424072</v>
+        <v>2.57268229267291</v>
       </c>
     </row>
     <row r="71">
@@ -3510,16 +3510,16 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C71" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D71" t="s">
         <v>23</v>
       </c>
       <c r="E71" t="n">
-        <v>2.19147683877929</v>
+        <v>1.63809982052118</v>
       </c>
     </row>
     <row r="72">
